--- a/saveData/liveData_02_04_1352.xlsx
+++ b/saveData/liveData_02_04_1352.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\PHY 472 DL Research II\DSC\saveData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nerdy Griffin\Documents\GitHub\DSC_UI\saveData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C042A71-F1C4-4128-AD3A-AFEB7DA494F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,16 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U315"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>737460.57411507063</v>
       </c>
@@ -539,7 +540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>737460.57412713021</v>
       </c>
@@ -592,7 +593,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>737460.57413864485</v>
       </c>
@@ -645,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>737460.57415041572</v>
       </c>
@@ -689,7 +690,7 @@
         <v>-0.37537610704921676</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>737460.57416176237</v>
       </c>
@@ -733,7 +734,7 @@
         <v>0.57867539908932564</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>737460.57417365036</v>
       </c>
@@ -777,7 +778,7 @@
         <v>-2.4683985692304766</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>737460.57418574812</v>
       </c>
@@ -821,7 +822,7 @@
         <v>-1.7000243091996747</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>737460.57419688662</v>
       </c>
@@ -865,7 +866,7 @@
         <v>-1.3602282284191336</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>737460.57420777506</v>
       </c>
@@ -909,7 +910,7 @@
         <v>-0.96246122258208722</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>737460.57421870693</v>
       </c>
@@ -953,7 +954,7 @@
         <v>-0.61241575584657149</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>737460.57423043018</v>
       </c>
@@ -997,7 +998,7 @@
         <v>-3.1276816248512063</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>737460.57424231456</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>-3.8704956666964474</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>737460.57425378775</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>-2.9837384091019636</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>737460.57426420506</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>1.6172154603577926</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>737460.57427532016</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>-2.6409747385238358</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>737460.57428684272</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>-3.027492699042087</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>737460.57429825841</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>-2.832828909867855</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>737460.57430938759</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>-2.8433413349306136</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>737460.57432155579</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>-2.5260116465756521</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>737460.57433337648</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>-2.8477188621179295</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>737460.57434480346</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>-3.0722046606853937</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>737460.5743559408</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>-1.1971647573700483</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>737460.57436712272</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>-2.9829070242399425</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>737460.57437815797</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>-2.9818231638176851</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>737460.57438906853</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>9.7663452151489327</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>737460.57440011343</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>5.1617715789634833</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>737460.57441178767</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>3.3251931940831003</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>737460.5744233001</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>-2.6654826507744289</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>737460.57443493092</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>-2.3974740272585038</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>737460.57444623427</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>7.2612447590989859</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>737460.57445805497</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>-3.3301218322783299</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>737460.57446914888</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>-2.8402055430857587</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>737460.57448095339</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>-3.3248393238067475</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>737460.57449230447</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>-2.0074308561757714</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>737460.57450344891</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>-3.0314914298063744</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>737460.57451449451</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>-3.0214314959762323</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>737460.57452609902</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>-2.9671752344005409</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>737460.57453766535</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>-2.5858766288852397</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>737460.57454906614</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>-3.4506410244305208</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>737460.57456058834</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>-3.375980819991895</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>737460.57457246876</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>-3.3867352320933719</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>737460.57458432647</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>-0.64789911324393046</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>737460.57459623518</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>-3.7368122861745601</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>737460.57460737962</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>-2.3099863572735391</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>737460.57461814675</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>-3.4644787074258865</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>737460.57462937292</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>-0.66637742392533283</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>737460.57464069873</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>-3.5237228270624676</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>737460.57465098985</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>-3.6279840942334474</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>737460.57466196327</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>-9.6294464064545409</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>737460.57467311365</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>-12.13951408499204</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>737460.57468508603</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>-12.778950876942972</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>737460.57469654514</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>-13.815291812157025</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>737460.57470808725</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>-13.405476098605416</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>737460.57471994602</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>-13.698024228087931</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>737460.57473105052</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>-14.993282010788452</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>737460.57474286633</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>-15.159681207096572</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>737460.57475452975</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>-14.627473152833446</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>737460.57476625184</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>-13.789721078737578</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>737460.57477762469</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>-13.772726525004018</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>737460.57478864561</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>-11.747355826166004</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>737460.57479968353</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>-11.503423640335615</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>737460.5748118558</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>-11.796739943055019</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>737460.57482274389</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>-11.223608179711693</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>737460.57483364281</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>-10.744940839932767</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>737460.57484460494</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>-4.8702801457312184</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>737460.57485590468</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>-10.043334538555957</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>737460.57486748486</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>-9.3603538389753638</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>737460.57487835328</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>-13.825898985813197</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>737460.57488991763</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>-19.770264155944968</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>737460.57490168803</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>-24.024182711416671</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>737460.57491382957</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>-28.314836902702211</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>737460.57492542185</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>-31.034132454234353</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>737460.57493671949</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>-33.806979296426626</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>737460.57494832587</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>-34.737964775043437</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>737460.57496009173</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>-38.672628153770248</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>737460.57497090998</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>-38.291813630490488</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>737460.57498319366</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>-41.405477418511623</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>737460.57499501144</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>-42.49391759530377</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>737460.57500637427</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>-42.397306517884701</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>737460.57501758833</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>-43.239046977312299</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>737460.57502893824</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>-43.429848981408767</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>737460.57504024555</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>-40.827642046487355</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>737460.57505174412</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>-46.890832914124132</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>737460.57506298344</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>-47.553693892132074</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>737460.5750743543</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>-48.496412428349267</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>737460.57508556836</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>-47.951229554004115</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>737460.57509679871</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>-49.402269113428872</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>737460.57510826597</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>-49.849367766679684</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>737460.57511914917</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>-49.992532357071006</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>737460.57512965507</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>-48.564632713739506</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>737460.57514176285</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>-50.191405382063046</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>737460.57515334035</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>-50.188269570471761</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>737460.5751635459</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>-46.752435279575586</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>737460.57517427206</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>-50.5582455837081</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>737460.57518545934</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>-50.697390410844584</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>737460.57519635395</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>-49.502731683270135</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>737460.57520826301</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>-49.895247887121393</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>737460.57521906425</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>-51.671635679120349</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>737460.57523025095</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>-50.886898066152419</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>737460.57524141239</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>-51.291452432496826</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>737460.57525270141</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>-50.720225178103249</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>737460.57526429091</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>-49.894911088634736</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>737460.57527636236</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>-51.019455470295455</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>737460.57528716687</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>-50.062299501811054</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>737460.57529785519</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>-49.549453492377815</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>737460.57530935504</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>-50.33566436401285</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>737460.57532051252</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>-48.933030327690702</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>737460.57533170609</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>-50.871103078811252</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>737460.57534261886</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>-49.432543636638655</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>737460.57535428146</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>-47.494660362761429</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>737460.57536566176</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>-50.01642994453271</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>737460.57537741482</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>-48.908595970263988</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>737460.57538897987</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>-49.150781437970281</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>737460.57540066994</v>
       </c>
@@ -5529,7 +5530,7 @@
         <v>-49.553546894707708</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>737460.57541144197</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>-48.748594684907914</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>737460.5754229083</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>-49.369542774926877</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>737460.57543426857</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>-49.311887591838939</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>737460.57544565399</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>-49.215550112156912</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>737460.57545631146</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>-49.080067248800148</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>737460.57546716416</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>-47.745863894698246</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>737460.57547878567</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>-48.428960384741835</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>737460.57548939006</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>-46.734641040206178</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>737460.57550080353</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>-48.717194233501814</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>737460.57551219</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>-48.180587469023635</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>737460.57552283478</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>-47.588419573345995</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>737460.57553380216</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>-46.243198736861586</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>737460.57554478664</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>-48.412176297719398</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>737460.5755566142</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>-48.185217543898602</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>737460.57556740264</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>-46.616005327628159</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>737460.5755788642</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>-42.470409517949214</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>737460.5755898864</v>
       </c>
@@ -6277,7 +6278,7 @@
         <v>-32.940741957987782</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>737460.57560085447</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>-47.226430473137533</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>737460.57561200182</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>-45.8376761681048</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>737460.57562303462</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>-46.811700443239886</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>737460.5756337021</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>-47.573645362103321</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>737460.57564562361</v>
       </c>
@@ -6497,7 +6498,7 @@
         <v>-47.095777666074412</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>737460.57565770159</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>-44.606092474811604</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>737460.57566879736</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>-46.504009671394059</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>737460.57567965658</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>-46.251175056245863</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>737460.57569102594</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>-46.501684109482575</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>737460.57570176199</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>-40.960336324905377</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>737460.57571381133</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>-25.8177964869367</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>737460.57572494226</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>-44.979604153783022</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>737460.57573651662</v>
       </c>
@@ -6849,7 +6850,7 @@
         <v>-44.571240494654205</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>737460.5757473578</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>-44.725085796131708</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>737460.57575829863</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>-45.130703004484083</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>737460.57577013923</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>-45.346823116635456</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>737460.57578141894</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>-44.947193515372469</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>737460.57579271391</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>-43.0573158567476</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>737460.57580413425</v>
       </c>
@@ -7113,7 +7114,7 @@
         <v>-44.244334814132777</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>737460.57581502129</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>-43.807590770971188</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>737460.57582646178</v>
       </c>
@@ -7201,7 +7202,7 @@
         <v>-44.312134085416552</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>737460.5758372962</v>
       </c>
@@ -7245,7 +7246,7 @@
         <v>-43.150012353339584</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>737460.57584828348</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>-30.811782922240788</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>737460.5758591427</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>-43.386020759246435</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>737460.57587102568</v>
       </c>
@@ -7377,7 +7378,7 @@
         <v>-43.918397279009731</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>737460.57588233054</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>-43.375497821125428</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>737460.5758935489</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>-42.292424447617726</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>737460.5759050037</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>-42.105589604859716</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>737460.57591632847</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>-41.172478536744094</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>737460.57592754019</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>-41.772254496776824</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>737460.5759402446</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>-19.220935319154194</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>737460.57595060498</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>-42.643795803300584</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>737460.57596183382</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>-40.107651933880469</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>737460.57597331819</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>-42.325834697342266</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>737460.57598435855</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>-42.402515340287835</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>737460.57599561254</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>-41.695342293928668</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>737460.57600681204</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>-41.636792656644779</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>737460.57601843448</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>-41.0888211793294</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>737460.57602926635</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>-41.018917282082832</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>737460.57604034687</v>
       </c>
@@ -8037,7 +8038,7 @@
         <v>-41.317821330432388</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>737460.57605206489</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>-40.50686056170521</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>737460.57606333203</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>-41.350063636454514</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>737460.57607471303</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>-40.795115414544064</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>737460.5760866421</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>-41.674317452261583</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>737460.5760979983</v>
       </c>
@@ -8257,7 +8258,7 @@
         <v>-42.003054077718232</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>737460.5761090453</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>-41.293229227307876</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>737460.57612016553</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>-39.856269409558386</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>737460.57613185747</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>-41.049318019496681</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>737460.57614241284</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>-40.524065568758481</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>737460.57615355775</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>-40.594274625981981</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>737460.57616474712</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>-37.175140525951505</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>737460.57617575687</v>
       </c>
@@ -8565,7 +8566,7 @@
         <v>-40.35505664745741</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>737460.57618693321</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>-40.650130354328262</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>737460.57619824866</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v>-40.270304877459978</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>737460.57620900986</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>-39.450652163353936</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>737460.57622118096</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>-40.06878007526101</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>737460.57623180281</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>-39.808516234008458</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>737460.57624350756</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>-36.163307469189704</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>737460.57625418715</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>-38.641753867747362</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>737460.57626556151</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>-40.051364606289091</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>737460.57627680479</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>-39.53803462319599</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>737460.57628763199</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>-39.637360640900098</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>737460.5762991762</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>-37.877125621669101</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>737460.57630976359</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>-39.175298402917853</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>737460.57632097218</v>
       </c>
@@ -9137,7 +9138,7 @@
         <v>-37.488776592781164</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>737460.57633294968</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>-38.434662427453553</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>737460.57634353696</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>-37.762857065456863</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>737460.57635522482</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>-38.591012259765428</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>737460.57636626903</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>-38.633398632035842</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>737460.57637723722</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>-38.223182995436929</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>737460.57638864312</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>-37.120494749787852</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>737460.57639950502</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>-38.434209930291637</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>737460.57641078345</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>-38.294560017944079</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>737460.57642109308</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>-36.859031287831243</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>737460.57643329503</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>-38.581888855981646</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>737460.576444773</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>-38.621781306780939</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>737460.57645618659</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>-37.401783392967367</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>737460.57646747457</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>-37.277675856015833</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>737460.57647911925</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>-37.333721027753214</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>737460.57649081375</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>-37.4047298109042</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>737460.57650247857</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>-12.690779288853101</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>737460.57651297993</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>-35.738485693739683</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>737460.57652369456</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>-36.024993750774357</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>737460.57653436461</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>-13.553344478950677</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>737460.57654452417</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>-37.058840841713987</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>737460.57655604661</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>-35.135395083211584</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>737460.57656786602</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>-36.655507131391261</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>737460.5765791341</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>-36.303146531813951</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>737460.57659067947</v>
       </c>
@@ -10193,7 +10194,7 @@
         <v>-36.510616781009603</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>737460.57660216838</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>-34.524927884023931</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>737460.57661272609</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>-36.04885972470445</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>737460.57662334444</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>-36.270093969767778</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>737460.57663446595</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>-35.982375808732009</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>737460.57664592424</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>-35.537739549817942</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>737460.57665764389</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>-35.57575896038859</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>737460.57666846749</v>
       </c>
@@ -10501,7 +10502,7 @@
         <v>-35.922447661043897</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>737460.57667924685</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>-34.929503256205948</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>737460.57669042831</v>
       </c>
@@ -10589,7 +10590,7 @@
         <v>-31.875483614004324</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>737460.57670138171</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>-35.338529809725749</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>737460.5767127563</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>-33.20127907018243</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>737460.5767248841</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>-35.361659229039695</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>737460.57673600281</v>
       </c>
@@ -10765,7 +10766,7 @@
         <v>-33.913261043564233</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>737460.57674691826</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>-35.056830742311995</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>737460.57675768959</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>-34.531957123346899</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>737460.5767692927</v>
       </c>
@@ -10897,7 +10898,7 @@
         <v>-34.733555554501692</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>737460.57678062399</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>-31.604644172158608</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>737460.5767914051</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>-34.655727914130857</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>737460.5768018536</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>-32.677962832503667</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>737460.5768131644</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>-32.542406281366809</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>737460.57682440593</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>-33.970063777561826</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>737460.57683590101</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>-33.210560231232442</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>737460.57684698736</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>-34.049606655138973</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>737460.57685828733</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>-33.903958734867878</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>737460.57686929812</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>-33.03400641562849</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>737460.5768801925</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>-33.647451537315483</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>737460.57689123077</v>
       </c>
@@ -11381,7 +11382,7 @@
         <v>-34.104831045716296</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>737460.57690189197</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>-32.998280985615665</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>737460.5769129768</v>
       </c>
@@ -11469,7 +11470,7 @@
         <v>-33.755132754419797</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>737460.57692359877</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>-33.336877536098804</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>737460.57693462947</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>-33.207213888795827</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>737460.57694617088</v>
       </c>
@@ -11601,7 +11602,7 @@
         <v>-32.899291665834568</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>737460.57695738319</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>-33.736780751360001</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>737460.57696811715</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>-32.677952225653378</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>737460.57697957067</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>-32.495926416134424</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>737460.57699046179</v>
       </c>
@@ -11777,7 +11778,7 @@
         <v>-32.917117525330092</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>737460.57700197725</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>-32.550235298988071</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>737460.57701331133</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>-33.278422610726608</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>737460.57702430687</v>
       </c>
@@ -11909,7 +11910,7 @@
         <v>-32.819811912346005</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>737460.57703506679</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>-31.634992226846592</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>737460.57704624254</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>-32.490549180809452</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>737460.57705799944</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>-32.337587800750455</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>737460.57706889312</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>-32.110565882504147</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>737460.5770802208</v>
       </c>
@@ -12129,7 +12130,7 @@
         <v>-31.052284561722765</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>737460.57709149295</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>-31.888110977085532</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>737460.57710282051</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>-31.48262014205195</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>737460.57711371558</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>-31.919806072291266</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>737460.57712467667</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>-29.822216274346054</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>737460.57713552285</v>
       </c>
@@ -12349,7 +12350,7 @@
         <v>-32.052679211519319</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>737460.5771464745</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>-31.821269271269081</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>737460.57715806249</v>
       </c>
@@ -12437,7 +12438,7 @@
         <v>-31.494163731877265</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>737460.57716963708</v>
       </c>
@@ -12481,7 +12482,7 @@
         <v>-30.73286075371243</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>737460.57718085055</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>-18.497199349489797</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>737460.57719211816</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>-29.760109954475539</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>737460.57720350428</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>-31.050285163924727</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>737460.57721459516</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>-6.3245813787365357</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>737460.57722534228</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>-31.259039213641557</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>737460.57723629789</v>
       </c>
@@ -12745,7 +12746,7 @@
         <v>-30.754474879780432</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>737460.57724663068</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>-28.585897339941688</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>737460.57725804823</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>-30.536786830068557</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>737460.57726925123</v>
       </c>
@@ -12877,7 +12878,7 @@
         <v>-29.489291569325012</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>737460.57728146133</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>-30.33194737463792</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>737460.5772926542</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>-29.799770779788801</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>737460.57730437419</v>
       </c>
@@ -13009,7 +13010,7 @@
         <v>-30.37967939401161</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>737460.57731566287</v>
       </c>
@@ -13053,7 +13054,7 @@
         <v>-30.574648367886731</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>737460.57732702303</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>-30.321876882180696</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>737460.57733860926</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>-29.372486906226101</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>737460.57734943321</v>
       </c>
@@ -13185,7 +13186,7 @@
         <v>-29.731434824447561</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>737460.57736047322</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>-30.002105814121954</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>737460.57737150404</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>-30.267841602705936</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>737460.57738231146</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>-27.145307206343148</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>737460.57739394112</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>-29.945324049375671</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>737460.57740486518</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>-29.320650883925843</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>737460.57741584815</v>
       </c>
@@ -13449,7 +13450,7 @@
         <v>-29.54776744771511</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>737460.57742692716</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>-29.658468785736645</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>737460.57743875089</v>
       </c>
@@ -13537,7 +13538,7 @@
         <v>-29.383272893814954</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>737460.57745049149</v>
       </c>
@@ -13581,7 +13582,7 @@
         <v>-4.086236992055845</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>737460.57746093697</v>
       </c>
@@ -13625,7 +13626,7 @@
         <v>-4.1243826567628794</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>737460.57747152331</v>
       </c>
@@ -13669,7 +13670,7 @@
         <v>-8.2179630627200773</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>737460.57748235075</v>
       </c>
@@ -13713,7 +13714,7 @@
         <v>-28.304261411825593</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>737460.57749406842</v>
       </c>
@@ -13757,7 +13758,7 @@
         <v>-29.16721591742003</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>737460.5775051174</v>
       </c>
@@ -13801,7 +13802,7 @@
         <v>-27.761709269972421</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>737460.5775161105</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>-28.915002139755074</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>737460.57752653281</v>
       </c>
@@ -13889,7 +13890,7 @@
         <v>-28.6477090580021</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>737460.57753828564</v>
       </c>
@@ -13933,7 +13934,7 @@
         <v>-29.233015847562221</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>737460.57754963532</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>-26.815876040334096</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>737460.57756134728</v>
       </c>
@@ -14021,7 +14022,7 @@
         <v>-28.929471185891764</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>737460.57757296273</v>
       </c>
@@ -14065,7 +14066,7 @@
         <v>-28.367777823754246</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>737460.57758455363</v>
       </c>
@@ -14109,7 +14110,7 @@
         <v>-28.219141322393035</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>737460.57759590121</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>-27.166963306410537</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>737460.57760691724</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>-28.572648880366245</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>737460.57761910674</v>
       </c>
@@ -14241,7 +14242,7 @@
         <v>-28.316983599016737</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>737460.57762998715</v>
       </c>
@@ -14285,7 +14286,7 @@
         <v>-25.514788531678619</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>737460.57764040993</v>
       </c>
